--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3BE2A-3082-4E17-81CB-4F57ADF1787C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B52DC-143B-4A0A-8AD0-FDAAC8E81B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="14">
   <si>
     <t>Labs</t>
   </si>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -237,34 +237,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +587,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,11 +598,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -610,10 +613,10 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -624,10 +627,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -638,7 +641,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -646,22 +649,22 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -669,7 +672,7 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -677,7 +680,7 @@
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -685,7 +688,7 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -693,7 +696,7 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -701,7 +704,7 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -709,7 +712,7 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -717,7 +720,7 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -725,7 +728,7 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -733,7 +736,7 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -741,7 +744,7 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B52DC-143B-4A0A-8AD0-FDAAC8E81B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0A798-404D-4249-8040-BAF5355CABE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Labs</t>
   </si>
@@ -249,9 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,13 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -641,7 +641,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -661,10 +661,10 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -672,15 +672,15 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -696,7 +696,7 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -720,7 +720,7 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0A798-404D-4249-8040-BAF5355CABE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="14">
   <si>
     <t>Labs</t>
   </si>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -261,13 +261,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +590,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,10 +601,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
@@ -641,8 +644,8 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -655,10 +658,10 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -672,7 +675,7 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A54D727-7585-415C-A84E-30B20263677C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
   <si>
     <t>Labs</t>
   </si>
@@ -51,19 +51,10 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Retrasado</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Completado</t>
@@ -229,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -261,7 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -269,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +584,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,15 +595,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="D1" s="6"/>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -619,53 +611,43 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>5</v>
@@ -673,83 +655,63 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A54D727-7585-415C-A84E-30B20263677C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE0367FF-984A-4292-B85B-47888394EDD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +584,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,10 +595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
         <v>6</v>
@@ -636,14 +636,14 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -663,19 +663,19 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE0367FF-984A-4292-B85B-47888394EDD6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB76BA0D-2C45-4A38-8616-92247277F4F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -258,14 +258,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +584,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,10 +595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
         <v>6</v>
@@ -636,14 +636,14 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -663,13 +663,13 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -681,25 +681,25 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">

--- a/plan_final.xlsx
+++ b/plan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Docs_ssam\ITESM\Semestre_5\DAW\Repo\daw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB76BA0D-2C45-4A38-8616-92247277F4F3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C76077AD-F406-4B93-B800-96E814891267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B69566D5-5429-415A-9819-2490014D588B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{21661C6A-B387-4B33-96BA-DE52B0DC4200}"/>
   </bookViews>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -240,12 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +581,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,10 +592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="15"/>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
         <v>6</v>
@@ -620,7 +617,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>8</v>
@@ -630,26 +627,26 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -657,61 +654,61 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
